--- a/平台产品基线/bak/现场总管基线产品8月-测试方案_8-25.xlsx
+++ b/平台产品基线/bak/现场总管基线产品8月-测试方案_8-25.xlsx
@@ -11007,7 +11007,7 @@
   <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B42"/>
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>

--- a/平台产品基线/bak/现场总管基线产品8月-测试方案_8-25.xlsx
+++ b/平台产品基线/bak/现场总管基线产品8月-测试方案_8-25.xlsx
@@ -4290,7 +4290,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4473,6 +4473,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4786,7 +4792,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4871,7 +4877,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5042,6 +5051,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5061,7 +5138,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -11007,7 +11084,7 @@
   <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -11244,7 +11321,7 @@
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21">
+      <c r="A9" s="28">
         <v>1987</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -11264,7 +11341,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+      <c r="A10" s="29">
         <v>1986</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -11366,7 +11443,7 @@
       <c r="K13" s="21"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="7">
+      <c r="A14" s="29">
         <v>1667</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -11391,7 +11468,7 @@
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
+      <c r="A15" s="29">
         <v>1668</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -11416,7 +11493,7 @@
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
+      <c r="A16" s="29">
         <v>1670</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -11441,7 +11518,7 @@
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
+      <c r="A17" s="29">
         <v>1669</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -11495,7 +11572,7 @@
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
+      <c r="A19" s="29">
         <v>1639</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -11520,7 +11597,7 @@
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
+      <c r="A20" s="29">
         <v>1640</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -11605,7 +11682,7 @@
       <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="7">
+      <c r="A23" s="29">
         <v>1527</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -11630,7 +11707,7 @@
       <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="7">
+      <c r="A24" s="29">
         <v>1528</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -11717,7 +11794,7 @@
       <c r="K26" s="7"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="28">
+      <c r="A27" s="29">
         <v>1418</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -11742,7 +11819,7 @@
       <c r="K27" s="7"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="28">
+      <c r="A28" s="29">
         <v>1419</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -11767,7 +11844,7 @@
       <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" s="28">
+      <c r="A29" s="29">
         <v>1420</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -11792,7 +11869,7 @@
       <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" s="7">
+      <c r="A30" s="29">
         <v>1425</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -11819,7 +11896,7 @@
       <c r="K30" s="7"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31" s="7">
+      <c r="A31" s="29">
         <v>1303</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -11846,7 +11923,7 @@
       <c r="K31" s="7"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="7">
+      <c r="A32" s="29">
         <v>1287</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -11927,7 +12004,7 @@
       <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="7">
+      <c r="A35" s="29">
         <v>1284</v>
       </c>
       <c r="B35" s="10" t="s">
@@ -11977,7 +12054,7 @@
       <c r="K36" s="7"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="7">
+      <c r="A37" s="29">
         <v>1278</v>
       </c>
       <c r="B37" s="10" t="s">
@@ -12002,7 +12079,7 @@
       <c r="K37" s="7"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="7">
+      <c r="A38" s="29">
         <v>1277</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -12027,7 +12104,7 @@
       <c r="K38" s="7"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39" s="7">
+      <c r="A39" s="29">
         <v>1232</v>
       </c>
       <c r="B39" s="10" t="s">
@@ -12052,7 +12129,7 @@
       <c r="K39" s="7"/>
     </row>
     <row r="40" spans="1:11" ht="48" x14ac:dyDescent="0.15">
-      <c r="A40" s="7">
+      <c r="A40" s="29">
         <v>1233</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -12079,7 +12156,7 @@
       <c r="K40" s="7"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="7">
+      <c r="A41" s="29">
         <v>1234</v>
       </c>
       <c r="B41" s="10" t="s">
@@ -12106,7 +12183,7 @@
       <c r="K41" s="20"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42" s="7">
+      <c r="A42" s="29">
         <v>1230</v>
       </c>
       <c r="B42" s="7" t="s">
